--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,132 +52,147 @@
     <t>poor</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
+    <t>instead</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>ok</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>though</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>better</t>
+    <t>3</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -193,43 +208,37 @@
     <t>great</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>cute</t>
   </si>
   <si>
     <t>game</t>
@@ -599,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,16 +798,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.828125</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7142857142857143</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6881720430107527</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6578947368421053</v>
+        <v>0.640625</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.5380200860832137</v>
+        <v>0.5423242467718795</v>
       </c>
       <c r="L9">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M9">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65625</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.5362318840579711</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6545454545454545</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.4979253112033195</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6351351351351351</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.4467213114754098</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L12">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M12">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6067961165048543</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.3669724770642202</v>
+        <v>0.35</v>
       </c>
       <c r="L13">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>207</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,37 +1277,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5546218487394958</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15">
-        <v>66</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>53</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15">
+        <v>0.3227513227513227</v>
+      </c>
+      <c r="L15">
         <v>61</v>
       </c>
-      <c r="K15">
-        <v>0.3192771084337349</v>
-      </c>
-      <c r="L15">
-        <v>53</v>
-      </c>
       <c r="M15">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4811594202898551</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C16">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D16">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.3166666666666667</v>
+        <v>0.3058103975535168</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4444444444444444</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.234375</v>
+        <v>0.203125</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4210526315789473</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.2167832167832168</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>112</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4015748031496063</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>0.2043010752688172</v>
+        <v>0.192</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3855421686746988</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>0.1967871485943775</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>200</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3833333333333334</v>
+        <v>0.421875</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,16 +1598,16 @@
         <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0.192</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3809523809523809</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>0.1746031746031746</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>104</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3744075829383886</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,31 +1695,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K23">
-        <v>0.1473684210526316</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L23">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>972</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3359375</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1736,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K24">
-        <v>0.1042780748663102</v>
+        <v>0.08382066276803118</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>335</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3258426966292135</v>
+        <v>0.3515625</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K25">
-        <v>0.09727626459143969</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>232</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2920792079207921</v>
+        <v>0.3412322274881517</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,31 +1845,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>0.08506493506493507</v>
+        <v>0.02929427430093209</v>
       </c>
       <c r="L26">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>1409</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2525773195876289</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,31 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>145</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27">
-        <v>0.07799442896935933</v>
-      </c>
-      <c r="L27">
-        <v>28</v>
-      </c>
-      <c r="M27">
-        <v>28</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>331</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1918,13 +1903,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2346938775510204</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1936,31 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>75</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28">
-        <v>0.036</v>
-      </c>
-      <c r="L28">
-        <v>27</v>
-      </c>
-      <c r="M28">
-        <v>29</v>
-      </c>
-      <c r="N28">
-        <v>0.93</v>
-      </c>
-      <c r="O28">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>723</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1968,13 +1929,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1666666666666667</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1986,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>230</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1994,25 +1955,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1642651296829971</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C30">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>290</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2020,13 +1981,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1613924050632911</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2038,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>265</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2046,13 +2007,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1454005934718101</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C32">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2064,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>576</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2072,13 +2033,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1360759493670886</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2090,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2098,13 +2059,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2116,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2124,25 +2085,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1278195488721804</v>
+        <v>0.1661721068249258</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>232</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2150,13 +2111,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1168224299065421</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2168,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>189</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2176,13 +2137,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1101321585903084</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2194,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>404</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2202,25 +2163,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1093117408906883</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>28</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2228,13 +2189,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07349665924276169</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2246,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>416</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2254,13 +2215,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06260296540362438</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0.03</v>
@@ -2272,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>569</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2280,25 +2241,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03828483920367534</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F41">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>628</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2306,25 +2267,155 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.03698979591836735</v>
+        <v>0.1035242290748899</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E42">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>755</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.0801781737193764</v>
+      </c>
+      <c r="C43">
+        <v>36</v>
+      </c>
+      <c r="D43">
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.07323943661971831</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.0462046204620462</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.04331210191082802</v>
+      </c>
+      <c r="C47">
+        <v>34</v>
+      </c>
+      <c r="D47">
+        <v>43</v>
+      </c>
+      <c r="E47">
+        <v>0.21</v>
+      </c>
+      <c r="F47">
+        <v>0.79</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
